--- a/tut06/output/attendence_report_consolidated.xlsx
+++ b/tut06/output/attendence_report_consolidated.xlsx
@@ -586,12 +586,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -636,12 +636,12 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -699,17 +699,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -890,12 +890,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -935,27 +935,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1008,17 +1008,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1028,12 +1028,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1204,27 +1204,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1362,12 +1362,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1415,22 +1415,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1621,17 +1621,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1676,12 +1676,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1842,17 +1842,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -1930,17 +1930,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1985,12 +1985,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2249,17 +2249,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2347,17 +2347,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2402,7 +2402,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -2445,17 +2445,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2505,7 +2505,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -2538,22 +2538,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2603,12 +2603,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2749,12 +2749,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2774,22 +2774,22 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2980,12 +2980,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3176,7 +3176,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3186,17 +3186,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3475,7 +3475,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -3500,12 +3500,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3568,12 +3568,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3583,7 +3583,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3623,7 +3623,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3877,17 +3877,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4045,7 +4045,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4211,12 +4211,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -4226,7 +4226,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4256,7 +4256,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -4407,17 +4407,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4427,12 +4427,12 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -4457,12 +4457,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4510,17 +4510,17 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4530,7 +4530,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4560,12 +4560,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4633,12 +4633,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4711,22 +4711,22 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -4766,12 +4766,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -4809,12 +4809,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4834,17 +4834,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -4922,22 +4922,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -5334,7 +5334,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -5389,7 +5389,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5447,17 +5447,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5492,7 +5492,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -5540,7 +5540,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5653,22 +5653,22 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -5731,17 +5731,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -5766,12 +5766,12 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5859,17 +5859,17 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -5937,12 +5937,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5972,7 +5972,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6143,7 +6143,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -6178,7 +6178,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6404,7 +6404,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -6452,7 +6452,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6482,12 +6482,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -6507,12 +6507,12 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6570,7 +6570,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6580,17 +6580,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -6673,27 +6673,27 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -6713,12 +6713,12 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -6776,12 +6776,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -6791,22 +6791,22 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -6864,12 +6864,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6992,17 +6992,17 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -7095,17 +7095,17 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -7183,12 +7183,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -7203,7 +7203,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -7228,12 +7228,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7301,12 +7301,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -7394,12 +7394,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -7409,22 +7409,22 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -7507,22 +7507,22 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -7537,12 +7537,12 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7615,12 +7615,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -7640,12 +7640,12 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -7708,22 +7708,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -8017,12 +8017,12 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -8306,17 +8306,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -8366,7 +8366,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -8434,7 +8434,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -8444,7 +8444,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -8512,7 +8512,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -8640,12 +8640,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -8723,27 +8723,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -8846,7 +8846,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8861,7 +8861,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -8871,12 +8871,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -8929,22 +8929,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -8954,12 +8954,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8979,22 +8979,22 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -9356,12 +9356,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -9376,7 +9376,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -9386,12 +9386,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -9454,22 +9454,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -9489,17 +9489,17 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -9509,7 +9509,7 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -9542,12 +9542,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -9557,17 +9557,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -9592,12 +9592,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -9612,7 +9612,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -9989,7 +9989,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -10160,7 +10160,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -10195,7 +10195,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -10283,12 +10283,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -10494,12 +10494,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -10509,12 +10509,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -10607,12 +10607,12 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -10675,12 +10675,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -10690,27 +10690,27 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10730,12 +10730,12 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P101" t="inlineStr">
@@ -10745,7 +10745,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11019,17 +11019,17 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -11205,12 +11205,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -11255,12 +11255,12 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -11451,7 +11451,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
@@ -11612,12 +11612,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -11632,27 +11632,27 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -11662,17 +11662,17 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R110" t="inlineStr">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -11715,17 +11715,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R111" t="inlineStr">
@@ -11818,17 +11818,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -11873,12 +11873,12 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R112" t="inlineStr">
@@ -11911,7 +11911,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -11951,7 +11951,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -12127,17 +12127,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -12162,12 +12162,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -12466,12 +12466,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12549,12 +12549,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -12564,7 +12564,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -12594,7 +12594,7 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
@@ -12838,12 +12838,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -12858,12 +12858,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -12966,22 +12966,22 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -12996,12 +12996,12 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P123" t="inlineStr">
@@ -13069,12 +13069,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -13099,12 +13099,12 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -13172,12 +13172,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -13202,12 +13202,12 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P125" t="inlineStr">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -13275,7 +13275,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
@@ -13471,12 +13471,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R128" t="inlineStr">
@@ -13584,7 +13584,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -13594,12 +13594,12 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -13662,7 +13662,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -13765,7 +13765,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -13790,17 +13790,17 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -13820,12 +13820,12 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R131" t="inlineStr">
@@ -13868,12 +13868,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -13883,7 +13883,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -13938,7 +13938,7 @@
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R132" t="inlineStr">
@@ -13971,7 +13971,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -13996,7 +13996,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -14006,7 +14006,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -14074,7 +14074,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -14099,17 +14099,17 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -14129,12 +14129,12 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P134" t="inlineStr">
@@ -14177,7 +14177,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -14202,7 +14202,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -14212,7 +14212,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -14285,17 +14285,17 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -14305,12 +14305,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -14330,27 +14330,27 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R136" t="inlineStr">
@@ -14393,17 +14393,17 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -14413,17 +14413,17 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -14443,7 +14443,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P137" t="inlineStr">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
@@ -14491,22 +14491,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -14516,7 +14516,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -14541,12 +14541,12 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P138" t="inlineStr">
@@ -14556,7 +14556,7 @@
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R138" t="inlineStr">
@@ -14599,32 +14599,32 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -14644,22 +14644,22 @@
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R139" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -14800,12 +14800,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -14815,17 +14815,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P141" t="inlineStr">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -14953,7 +14953,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -15016,12 +15016,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -15056,12 +15056,12 @@
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P143" t="inlineStr">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
@@ -15114,7 +15114,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -15134,17 +15134,17 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P144" t="inlineStr">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -15262,7 +15262,7 @@
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -15345,12 +15345,12 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -15571,7 +15571,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -15624,17 +15624,17 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -15654,12 +15654,12 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R149" t="inlineStr">
@@ -15722,12 +15722,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -15792,7 +15792,7 @@
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R150" t="inlineStr">
@@ -15830,17 +15830,17 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -15860,12 +15860,12 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R151" t="inlineStr">
@@ -15928,7 +15928,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -15943,17 +15943,17 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -15968,7 +15968,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
@@ -16056,7 +16056,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -16086,7 +16086,7 @@
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -16164,7 +16164,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -16194,7 +16194,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16252,7 +16252,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -16292,7 +16292,7 @@
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -16307,7 +16307,7 @@
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R155" t="inlineStr">
@@ -16340,7 +16340,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -16355,7 +16355,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -16365,17 +16365,17 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -16395,12 +16395,12 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R156" t="inlineStr">
@@ -16443,7 +16443,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -16546,7 +16546,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -16581,7 +16581,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
@@ -16649,7 +16649,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -16684,7 +16684,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -16757,7 +16757,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16767,17 +16767,17 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R160" t="inlineStr">
@@ -16855,7 +16855,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -16880,17 +16880,17 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -16910,12 +16910,12 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -17061,12 +17061,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -17096,7 +17096,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -17179,32 +17179,32 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -17219,12 +17219,12 @@
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P164" t="inlineStr">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R164" t="inlineStr">
@@ -17292,7 +17292,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -17322,7 +17322,7 @@
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -17370,17 +17370,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -17400,12 +17400,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -17430,7 +17430,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -17498,7 +17498,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -17543,7 +17543,7 @@
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R167" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17596,12 +17596,12 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -17611,7 +17611,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -17631,7 +17631,7 @@
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -17719,7 +17719,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -17782,12 +17782,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -17812,12 +17812,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -17837,12 +17837,12 @@
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
@@ -17885,27 +17885,27 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -17920,17 +17920,17 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
@@ -17940,7 +17940,7 @@
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -17955,7 +17955,7 @@
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R171" t="inlineStr">
@@ -17998,17 +17998,17 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -18053,12 +18053,12 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R172" t="inlineStr">
@@ -18091,7 +18091,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18121,12 +18121,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -18151,7 +18151,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
@@ -18161,7 +18161,7 @@
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R173" t="inlineStr">
@@ -18204,7 +18204,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -18229,12 +18229,12 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -18249,7 +18249,7 @@
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
@@ -18400,12 +18400,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -18420,17 +18420,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -18450,17 +18450,17 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
@@ -18503,7 +18503,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -18513,12 +18513,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -18558,7 +18558,7 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
@@ -18568,12 +18568,12 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R177" t="inlineStr">
@@ -18734,7 +18734,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -18764,7 +18764,7 @@
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
@@ -18812,7 +18812,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -18862,12 +18862,12 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
@@ -19028,17 +19028,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -19063,7 +19063,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -19078,17 +19078,17 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R182" t="inlineStr">
@@ -19121,7 +19121,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -19146,17 +19146,17 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -19176,12 +19176,12 @@
       </c>
       <c r="N183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P183" t="inlineStr">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -19279,7 +19279,7 @@
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
@@ -19352,12 +19352,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -19367,7 +19367,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -19377,17 +19377,17 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P185" t="inlineStr">
@@ -19440,12 +19440,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -19465,12 +19465,12 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -19480,12 +19480,12 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O186" t="inlineStr">
@@ -19495,12 +19495,12 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R186" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -19558,7 +19558,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -19568,7 +19568,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -19588,7 +19588,7 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
@@ -19661,7 +19661,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
@@ -19847,7 +19847,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -19857,27 +19857,27 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -19897,22 +19897,22 @@
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R190" t="inlineStr">
@@ -19945,12 +19945,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -19960,22 +19960,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -20000,12 +20000,12 @@
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P191" t="inlineStr">
@@ -20015,7 +20015,7 @@
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R191" t="inlineStr">
@@ -20053,7 +20053,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -20063,12 +20063,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R192" t="inlineStr">
@@ -20176,7 +20176,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -20186,12 +20186,12 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
@@ -20264,7 +20264,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -20274,22 +20274,22 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -20309,17 +20309,17 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q194" t="inlineStr">
@@ -20372,17 +20372,17 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -20392,12 +20392,12 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -20427,7 +20427,7 @@
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R195" t="inlineStr">
@@ -20460,7 +20460,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -20475,7 +20475,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -20485,17 +20485,17 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -20515,12 +20515,12 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P196" t="inlineStr">
@@ -20530,7 +20530,7 @@
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R196" t="inlineStr">
@@ -20578,12 +20578,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -20593,7 +20593,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -20618,12 +20618,12 @@
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
@@ -20633,7 +20633,7 @@
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R197" t="inlineStr">
@@ -20671,7 +20671,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -20681,7 +20681,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
@@ -20736,7 +20736,7 @@
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R198" t="inlineStr">
@@ -20774,17 +20774,17 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -20809,7 +20809,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -20819,7 +20819,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N199" t="inlineStr">
@@ -20839,7 +20839,7 @@
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R199" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -20897,7 +20897,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -20907,12 +20907,12 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -20995,7 +20995,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -21005,12 +21005,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -21020,22 +21020,22 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -21103,7 +21103,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -21113,7 +21113,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
@@ -21181,12 +21181,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21206,7 +21206,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -21221,7 +21221,7 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
@@ -21251,7 +21251,7 @@
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R203" t="inlineStr">
@@ -21284,12 +21284,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -21309,7 +21309,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -21319,7 +21319,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -21402,17 +21402,17 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -21427,7 +21427,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -21452,12 +21452,12 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R205" t="inlineStr">
@@ -21495,7 +21495,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -21525,12 +21525,12 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -21603,17 +21603,17 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -21633,7 +21633,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N207" t="inlineStr">
@@ -21663,7 +21663,7 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
@@ -21721,7 +21721,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -21751,7 +21751,7 @@
       </c>
       <c r="N208" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O208" t="inlineStr">
@@ -21799,17 +21799,17 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -21834,7 +21834,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -21902,12 +21902,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -21927,7 +21927,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -21942,7 +21942,7 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -22030,7 +22030,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -22040,12 +22040,12 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -22060,7 +22060,7 @@
       </c>
       <c r="N211" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O211" t="inlineStr">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -22133,12 +22133,12 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -22168,12 +22168,12 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -22216,12 +22216,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -22241,17 +22241,17 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
@@ -22271,7 +22271,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -22339,7 +22339,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -22349,12 +22349,12 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -22369,7 +22369,7 @@
       </c>
       <c r="N214" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O214" t="inlineStr">
@@ -22422,7 +22422,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -22437,12 +22437,12 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -22452,12 +22452,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -22472,7 +22472,7 @@
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -22555,12 +22555,12 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -22575,7 +22575,7 @@
       </c>
       <c r="N216" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O216" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -22658,12 +22658,12 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="N217" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="O217" t="inlineStr">
@@ -22741,17 +22741,17 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N218" t="inlineStr">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R218" t="inlineStr">
@@ -22834,7 +22834,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -22854,7 +22854,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -22864,12 +22864,12 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -22957,7 +22957,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -22982,7 +22982,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
@@ -23045,12 +23045,12 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -23065,7 +23065,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -23075,17 +23075,17 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
@@ -23095,7 +23095,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="P221" t="inlineStr">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="R221" t="inlineStr">
@@ -23158,27 +23158,27 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -23198,7 +23198,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -23241,7 +23241,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -23281,7 +23281,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
